--- a/resultados/tabelas_final/resultado_MMQ_final.xlsx
+++ b/resultados/tabelas_final/resultado_MMQ_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,11 +472,11 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bcsstk03</t>
+          <t>1138_bus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -485,30 +485,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9625475997232761</v>
+        <v>0.6298706669486681</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Polinomial</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>78447523902.77794</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12011186540.41745</v>
+        <v>1497.975426177219</v>
       </c>
       <c r="H2" t="n">
-        <v>-290904766.4688935</v>
+        <v>5400.861865821704</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>401</v>
+        <v>17</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bcsstk26</t>
+          <t>1138_bus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,30 +517,30 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9843255459745572</v>
+        <v>0.7724830471756003</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Polinomial</t>
+          <t>Logaritmo</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>126130840010.7244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1788698498.537045</v>
+        <v>13102.38016598089</v>
       </c>
       <c r="H3" t="n">
-        <v>-24281775.02731953</v>
+        <v>-6240.050058865218</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>480</v>
+        <v>18</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bcsstm20</t>
+          <t>1138_bus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,30 +549,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9879068601334673</v>
+        <v>0.7582582670608088</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Potencial</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>855.0524858459767</v>
+        <v>1.345143412116899</v>
       </c>
       <c r="H4" t="n">
-        <v>47640335.69120435</v>
+        <v>753.1532720549865</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>482</v>
+        <v>19</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bcsstm20</t>
+          <t>1138_bus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,30 +581,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9878391257057536</v>
+        <v>0.8643705103035273</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Exponencial</t>
+          <t>Polinomial</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-9464.076530876053</v>
       </c>
       <c r="G5" t="n">
-        <v>1.792508696186027e-05</v>
+        <v>5214.210025351656</v>
       </c>
       <c r="H5" t="n">
-        <v>47640361.67079366</v>
+        <v>-161.5754173554103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>483</v>
+        <v>20</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bcsstm20</t>
+          <t>685_bus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,30 +613,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9878391257057536</v>
+        <v>0.6015217668739167</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Geometrico</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.000017925247617</v>
+        <v>78.90236213227035</v>
       </c>
       <c r="H6" t="n">
-        <v>47640361.67079366</v>
+        <v>25923.39502979624</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>485</v>
+        <v>21</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bcsstm20</t>
+          <t>685_bus</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,30 +645,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9999390627373131</v>
+        <v>0.7776588449051246</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Polinomial</t>
+          <t>Logaritmo</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>47629988.23111176</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1243.725738080124</v>
+        <v>192.6582846545935</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.573995047908257</v>
+        <v>25967.5813352532</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>493</v>
+        <v>22</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bcsstm19</t>
+          <t>685_bus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -677,30 +677,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9803171114877061</v>
+        <v>0.7776520253984075</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Logaritmo</t>
+          <t>Potencial</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>254638.2805864523</v>
+        <v>0.007394327335801349</v>
       </c>
       <c r="H8" t="n">
-        <v>38331079.32780724</v>
+        <v>25967.39778302169</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>496</v>
+        <v>23</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bcsstm19</t>
+          <t>685_bus</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -709,30 +709,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9804588224955972</v>
+        <v>0.9340083114870938</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Potencial</t>
+          <t>Polinomial</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>25595.46863123709</v>
       </c>
       <c r="G9" t="n">
-        <v>0.006488033133180362</v>
+        <v>406.8287606913985</v>
       </c>
       <c r="H9" t="n">
-        <v>38341091.46928057</v>
+        <v>-65.58527971182551</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>497</v>
+        <v>28</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bcsstm19</t>
+          <t>494_bus</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -741,30 +741,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9899713750983324</v>
+        <v>0.6018927641938575</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Polinomial</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>38821555.0537608</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>12838.77672903067</v>
+        <v>6.695065689469629</v>
       </c>
       <c r="H10" t="n">
-        <v>-57.94228925123522</v>
+        <v>2198.638882724134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>601</v>
+        <v>29</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>can_187</t>
+          <t>494_bus</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9987452244438877</v>
+        <v>0.7779557911002878</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -784,19 +784,19 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.006567376653907681</v>
+        <v>16.34562534291317</v>
       </c>
       <c r="H11" t="n">
-        <v>8.37114478150591</v>
+        <v>2202.38972764019</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>604</v>
+        <v>30</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>can_187</t>
+          <t>494_bus</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9987517521211012</v>
+        <v>0.7779474809839555</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -816,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0007826720690214852</v>
+        <v>0.00739688245736143</v>
       </c>
       <c r="H12" t="n">
-        <v>8.371166959898815</v>
+        <v>2202.374175940339</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>605</v>
+        <v>31</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>can_187</t>
+          <t>494_bus</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9931736557082222</v>
+        <v>0.9339736268764869</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -845,22 +845,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8.380646184927766</v>
+        <v>2170.839047840293</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0005898120047442268</v>
+        <v>34.49490057331206</v>
       </c>
       <c r="H13" t="n">
-        <v>-5.278835455933046e-06</v>
+        <v>-5.559966976768449</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>665</v>
+        <v>36</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>can_445</t>
+          <t>662_bus</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -869,30 +869,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.9517061139106707</v>
+        <v>0.602755815332127</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Polinomial</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>8.878314515730604</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.004417106748896356</v>
+        <v>4.302909471044041</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.667950145127825e-05</v>
+        <v>1408.643353832635</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>725</v>
+        <v>37</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ck400</t>
+          <t>662_bus</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -901,30 +901,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9910075825273185</v>
+        <v>0.7787603710759297</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Polinomial</t>
+          <t>Logaritmo</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5.510434619446432</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.001774730904533153</v>
+        <v>10.50321428825977</v>
       </c>
       <c r="H15" t="n">
-        <v>9.727762257640255e-05</v>
+        <v>1411.055682410303</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>749</v>
+        <v>38</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ck104</t>
+          <t>662_bus</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -933,30 +933,30 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.9781917808277077</v>
+        <v>0.7787480179751753</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Polinomial</t>
+          <t>Potencial</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5.515113187679963</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.002926514153935892</v>
+        <v>0.007418454848512015</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0001664782455045732</v>
+        <v>1411.045706925363</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>769</v>
+        <v>39</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>dw2048</t>
+          <t>662_bus</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -965,30 +965,30 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9743625280611836</v>
+        <v>0.9345544053630863</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Logaritmo</t>
+          <t>Polinomial</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1390.796823953478</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01091970676943574</v>
+        <v>22.149439350201</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9303963054788743</v>
+        <v>-3.569305975831369</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>772</v>
+        <v>65</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>dw2048</t>
+          <t>bcsstk02</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -997,30 +997,30 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9741947277573539</v>
+        <v>0.8401100583727596</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Potencial</t>
+          <t>Logaritmo</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01129365188436072</v>
+        <v>2803.434850274383</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9310342721442431</v>
+        <v>10149.57178602087</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>773</v>
+        <v>66</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>dw2048</t>
+          <t>bcsstk02</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1029,30 +1029,30 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.9924339089634795</v>
+        <v>0.7889603466148023</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Polinomial</t>
+          <t>Potencial</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9478692706707648</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0007802100712921258</v>
+        <v>0.2062314795907771</v>
       </c>
       <c r="H19" t="n">
-        <v>-4.943365784152205e-06</v>
+        <v>10119.19263900779</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>785</v>
+        <v>67</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>dwt_162</t>
+          <t>bcsstk02</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9615568785587144</v>
+        <v>0.826742321348155</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1069,22 +1069,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7.961904439952412</v>
+        <v>10092.92248531329</v>
       </c>
       <c r="G20" t="n">
-        <v>0.007725560932528627</v>
+        <v>953.7882962318822</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.558704823611281e-05</v>
+        <v>-25.32115581583882</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>793</v>
+        <v>68</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>dwt_198</t>
+          <t>bcsstk05</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1093,30 +1093,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.9530617862050036</v>
+        <v>0.5761724597010675</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Logaritmo</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04373730582560002</v>
+        <v>91053.99062202158</v>
       </c>
       <c r="H21" t="n">
-        <v>8.05498626914984</v>
+        <v>3675191.836876972</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>796</v>
+        <v>69</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>dwt_198</t>
+          <t>bcsstk05</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1125,30 +1125,30 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9524459331869339</v>
+        <v>0.894735954149553</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Potencial</t>
+          <t>Logaritmo</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.005340459156279616</v>
+        <v>1450185.275440996</v>
       </c>
       <c r="H22" t="n">
-        <v>8.056003197143042</v>
+        <v>1521192.931126074</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>797</v>
+        <v>70</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>dwt_198</t>
+          <t>bcsstk05</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1157,30 +1157,30 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.9594225927700436</v>
+        <v>0.8412272214422285</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Polinomial</t>
+          <t>Potencial</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>8.11476870241566</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.004030455477182798</v>
+        <v>0.3838113581365909</v>
       </c>
       <c r="H23" t="n">
-        <v>-3.271809236100192e-05</v>
+        <v>1834514.074005418</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>845</v>
+        <v>71</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>fidap005</t>
+          <t>bcsstk05</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9680559607573197</v>
+        <v>0.9072859910489192</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3669012.730238768</v>
+        <v>1843514.666527648</v>
       </c>
       <c r="G24" t="n">
-        <v>43233.30436212925</v>
+        <v>365805.5661744202</v>
       </c>
       <c r="H24" t="n">
-        <v>-646.9544010491591</v>
+        <v>-7044.912193651247</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>869</v>
+        <v>124</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>e05r0100</t>
+          <t>bcsstk25</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1221,30 +1221,30 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.9536505262769562</v>
+        <v>0.5339520524283082</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Polinomial</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>12.73230003396526</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.001863170703394534</v>
+        <v>14702183510629.93</v>
       </c>
       <c r="H25" t="n">
-        <v>2.198517782713977e-06</v>
+        <v>811815128835033.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>913</v>
+        <v>125</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>dwt_1242</t>
+          <t>bcsstk25</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.9558644695854237</v>
+        <v>0.8316517515835263</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1264,19 +1264,19 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08085086586518317</v>
+        <v>150579393809436.3</v>
       </c>
       <c r="H26" t="n">
-        <v>9.035279492646803</v>
+        <v>650376029940237.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>916</v>
+        <v>126</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>dwt_1242</t>
+          <t>bcsstk25</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.9546216465232125</v>
+        <v>0.7968096165744423</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1296,10 +1296,490 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.008696523447179704</v>
+        <v>0.1776666310870834</v>
       </c>
       <c r="H27" t="n">
-        <v>9.03862732555822</v>
+        <v>655750402445468</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>bcsstk25</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8629417534670962</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Polinomial</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>616746317175381.9</v>
+      </c>
+      <c r="G28" t="n">
+        <v>61518698308946.41</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-1950688116596.521</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>bcsstk26</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5294503419175284</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Linear</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>692143731.2758074</v>
+      </c>
+      <c r="H29" t="n">
+        <v>133814740834.1212</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>bcsstk26</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.5831401112161171</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Logaritmo</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>11036118571.12941</v>
+      </c>
+      <c r="H30" t="n">
+        <v>118182718901.0582</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>bcsstk26</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.5280438682761507</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Potencial</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.08229614451680085</v>
+      </c>
+      <c r="H31" t="n">
+        <v>117794199799.0799</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>bcsstk26</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.6490167962186364</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Polinomial</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>123392169741.8721</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1994965117.806948</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-27719603.96874766</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>bcsstk17</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.5672803775937112</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Logaritmo</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2688365742.607683</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5675064494.617153</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>bcsstk17</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.6583171536431489</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Polinomial</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>4645127500.172636</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1188544397.960153</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-38928815.6406169</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>bcsstm09</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.7499999995833339</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Linear</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.002331183488742937</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.006475509687355097</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>bcsstm09</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8668309707991554</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Logaritmo</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.004511190441138811</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.004507465440003073</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>bcsstm09</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8668309691274847</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Potencial</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-2.848966006460739</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.003789314323320178</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>bcsstm09</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.999999999999998</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Polinomial</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.01424612132513221</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.01165591745407547</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.002331183491333133</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>can_292</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5355879478245777</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Polinomial</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>145.0488622055814</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-41.48918875212538</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.842956784036188</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>fidap005</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.6133953323029498</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Logaritmo</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>645328.6061902632</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2238839.980585044</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>fidap005</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5002921987079281</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Polinomial</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>2608696.478703828</v>
+      </c>
+      <c r="G41" t="n">
+        <v>132874.3509305803</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-2256.446170006492</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>sherman4</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.5469473632792226</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Logaritmo</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>6.698712661956514</v>
+      </c>
+      <c r="H42" t="n">
+        <v>39.56269488149096</v>
       </c>
     </row>
   </sheetData>

--- a/resultados/tabelas_final/resultado_MMQ_final.xlsx
+++ b/resultados/tabelas_final/resultado_MMQ_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -984,7 +984,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -997,26 +997,26 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.8401100583727596</v>
+        <v>0.4885746488032252</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Logaritmo</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2803.434850274383</v>
+        <v>219.4747775725567</v>
       </c>
       <c r="H18" t="n">
-        <v>10149.57178602087</v>
+        <v>13764.49007860993</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1029,26 +1029,26 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.7889603466148023</v>
+        <v>0.8401100583727596</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Potencial</t>
+          <t>Logaritmo</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2062314795907771</v>
+        <v>2803.434850274383</v>
       </c>
       <c r="H19" t="n">
-        <v>10119.19263900779</v>
+        <v>10149.57178602087</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1061,30 +1061,30 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.826742321348155</v>
+        <v>0.7889603466148023</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Polinomial</t>
+          <t>Potencial</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10092.92248531329</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>953.7882962318822</v>
+        <v>0.2062314795907771</v>
       </c>
       <c r="H20" t="n">
-        <v>-25.32115581583882</v>
+        <v>10119.19263900779</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>bcsstk05</t>
+          <t>bcsstk02</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1093,26 +1093,26 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.5761724597010675</v>
+        <v>0.826742321348155</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Polinomial</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>10092.92248531329</v>
       </c>
       <c r="G21" t="n">
-        <v>91053.99062202158</v>
+        <v>953.7882962318822</v>
       </c>
       <c r="H21" t="n">
-        <v>3675191.836876972</v>
+        <v>-25.32115581583882</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1125,26 +1125,26 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.894735954149553</v>
+        <v>0.5761724597010675</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Logaritmo</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1450185.275440996</v>
+        <v>91053.99062202158</v>
       </c>
       <c r="H22" t="n">
-        <v>1521192.931126074</v>
+        <v>3675191.836876972</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1157,26 +1157,26 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.8412272214422285</v>
+        <v>0.894735954149553</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Potencial</t>
+          <t>Logaritmo</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3838113581365909</v>
+        <v>1450185.275440996</v>
       </c>
       <c r="H23" t="n">
-        <v>1834514.074005418</v>
+        <v>1521192.931126074</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1189,30 +1189,30 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9072859910489192</v>
+        <v>0.8412272214422285</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Polinomial</t>
+          <t>Potencial</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1843514.666527648</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>365805.5661744202</v>
+        <v>0.3838113581365909</v>
       </c>
       <c r="H24" t="n">
-        <v>-7044.912193651247</v>
+        <v>1834514.074005418</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>bcsstk25</t>
+          <t>bcsstk05</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1221,26 +1221,26 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.5339520524283082</v>
+        <v>0.9072859910489192</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Polinomial</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1843514.666527648</v>
       </c>
       <c r="G25" t="n">
-        <v>14702183510629.93</v>
+        <v>365805.5661744202</v>
       </c>
       <c r="H25" t="n">
-        <v>811815128835033.5</v>
+        <v>-7044.912193651247</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1253,26 +1253,26 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8316517515835263</v>
+        <v>0.5339520524283082</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Logaritmo</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>150579393809436.3</v>
+        <v>14702183510629.93</v>
       </c>
       <c r="H26" t="n">
-        <v>650376029940237.1</v>
+        <v>811815128835033.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1285,26 +1285,26 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.7968096165744423</v>
+        <v>0.8316517515835263</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Potencial</t>
+          <t>Logaritmo</t>
         </is>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1776666310870834</v>
+        <v>150579393809436.3</v>
       </c>
       <c r="H27" t="n">
-        <v>655750402445468</v>
+        <v>650376029940237.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1317,30 +1317,30 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.8629417534670962</v>
+        <v>0.7968096165744423</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Polinomial</t>
+          <t>Potencial</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>616746317175381.9</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>61518698308946.41</v>
+        <v>0.1776666310870834</v>
       </c>
       <c r="H28" t="n">
-        <v>-1950688116596.521</v>
+        <v>655750402445468</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>bcsstk26</t>
+          <t>bcsstk25</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1349,26 +1349,26 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.5294503419175284</v>
+        <v>0.8629417534670962</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Polinomial</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>616746317175381.9</v>
       </c>
       <c r="G29" t="n">
-        <v>692143731.2758074</v>
+        <v>61518698308946.41</v>
       </c>
       <c r="H29" t="n">
-        <v>133814740834.1212</v>
+        <v>-1950688116596.521</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1381,26 +1381,26 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.5831401112161171</v>
+        <v>0.5294503419175284</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Logaritmo</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>11036118571.12941</v>
+        <v>692143731.2758074</v>
       </c>
       <c r="H30" t="n">
-        <v>118182718901.0582</v>
+        <v>133814740834.1212</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1413,26 +1413,26 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.5280438682761507</v>
+        <v>0.5831401112161171</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Potencial</t>
+          <t>Logaritmo</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08229614451680085</v>
+        <v>11036118571.12941</v>
       </c>
       <c r="H31" t="n">
-        <v>117794199799.0799</v>
+        <v>118182718901.0582</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1445,30 +1445,30 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.6490167962186364</v>
+        <v>0.5280438682761507</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Polinomial</t>
+          <t>Potencial</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>123392169741.8721</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1994965117.806948</v>
+        <v>0.08229614451680085</v>
       </c>
       <c r="H32" t="n">
-        <v>-27719603.96874766</v>
+        <v>117794199799.0799</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>bcsstk17</t>
+          <t>bcsstk26</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1477,26 +1477,26 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.5672803775937112</v>
+        <v>0.6490167962186364</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Logaritmo</t>
+          <t>Polinomial</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>123392169741.8721</v>
       </c>
       <c r="G33" t="n">
-        <v>2688365742.607683</v>
+        <v>1994965117.806948</v>
       </c>
       <c r="H33" t="n">
-        <v>5675064494.617153</v>
+        <v>-27719603.96874766</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1509,30 +1509,30 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.6583171536431489</v>
+        <v>0.5672803775937112</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Polinomial</t>
+          <t>Logaritmo</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4645127500.172636</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1188544397.960153</v>
+        <v>2688365742.607683</v>
       </c>
       <c r="H34" t="n">
-        <v>-38928815.6406169</v>
+        <v>5675064494.617153</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>bcsstm09</t>
+          <t>bcsstk17</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1541,26 +1541,26 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.7499999995833339</v>
+        <v>0.6583171536431489</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Polinomial</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>4645127500.172636</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.002331183488742937</v>
+        <v>1188544397.960153</v>
       </c>
       <c r="H35" t="n">
-        <v>0.006475509687355097</v>
+        <v>-38928815.6406169</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1573,26 +1573,26 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.8668309707991554</v>
+        <v>0.7499999995833339</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Logaritmo</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.004511190441138811</v>
+        <v>-0.002331183488742937</v>
       </c>
       <c r="H36" t="n">
-        <v>0.004507465440003073</v>
+        <v>0.006475509687355097</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1605,26 +1605,26 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.8668309691274847</v>
+        <v>0.8668309707991554</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Potencial</t>
+          <t>Logaritmo</t>
         </is>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.848966006460739</v>
+        <v>-0.004511190441138811</v>
       </c>
       <c r="H37" t="n">
-        <v>0.003789314323320178</v>
+        <v>0.004507465440003073</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1637,30 +1637,30 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.999999999999998</v>
+        <v>0.8668309691274847</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Polinomial</t>
+          <t>Potencial</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.01424612132513221</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.01165591745407547</v>
+        <v>-2.848966006460739</v>
       </c>
       <c r="H38" t="n">
-        <v>0.002331183491333133</v>
+        <v>0.003789314323320178</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>can_292</t>
+          <t>bcsstm09</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.5355879478245777</v>
+        <v>0.999999999999998</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1677,22 +1677,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>145.0488622055814</v>
+        <v>0.01424612132513221</v>
       </c>
       <c r="G39" t="n">
-        <v>-41.48918875212538</v>
+        <v>-0.01165591745407547</v>
       </c>
       <c r="H39" t="n">
-        <v>2.842956784036188</v>
+        <v>0.002331183491333133</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>fidap005</t>
+          <t>can_229</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.6133953323029498</v>
+        <v>0.4625537363323882</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1712,19 +1712,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>645328.6061902632</v>
+        <v>-27.86332171157766</v>
       </c>
       <c r="H40" t="n">
-        <v>2238839.980585044</v>
+        <v>65.70912654658666</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>283</v>
+        <v>206</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>fidap005</t>
+          <t>can_229</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1733,52 +1733,244 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.5002921987079281</v>
+        <v>0.4579655976558187</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Polinomial</t>
+          <t>Potencial</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2608696.478703828</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>132874.3509305803</v>
+        <v>-0.6477254486722672</v>
       </c>
       <c r="H41" t="n">
-        <v>-2256.446170006492</v>
+        <v>32.69672569961387</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>can_229</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.4749960510630769</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Polinomial</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>86.86989412131159</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-21.10177184489672</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.241505571040765</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>can_292</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.4988365009152653</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Logaritmo</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-46.54789294568258</v>
+      </c>
+      <c r="H43" t="n">
+        <v>100.9529737505046</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>can_292</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.4874444709099285</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Potencial</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.7552120918176101</v>
+      </c>
+      <c r="H44" t="n">
+        <v>51.2319018979458</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>can_292</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.5355879478245777</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Polinomial</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>145.0488622055814</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-41.48918875212538</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.842956784036188</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>fidap005</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.6133953323029498</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Logaritmo</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>645328.6061902632</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2238839.980585044</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>fidap005</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5002921987079281</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Polinomial</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>2608696.478703828</v>
+      </c>
+      <c r="G47" t="n">
+        <v>132874.3509305803</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-2256.446170006492</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>sherman4</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
         <v>0.5469473632792226</v>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>Logaritmo</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
         <v>6.698712661956514</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H48" t="n">
         <v>39.56269488149096</v>
       </c>
     </row>
